--- a/notebooks/NIPBL/input/NIPBL_CDLS1_individuals.xlsx
+++ b/notebooks/NIPBL/input/NIPBL_CDLS1_individuals.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/NIPBL/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702F564B-BDF5-FD4F-879D-EE029312EDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E5C111-7C21-D046-B956-0C4CB1982081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="33660" windowHeight="9120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3760" yWindow="760" windowWidth="28460" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="263">
   <si>
     <t>PMID</t>
   </si>
@@ -470,13 +483,352 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>PMID:38284454</t>
+  </si>
+  <si>
+    <t>Mutation profiling in South African patients with Cornelia de Lange syndrome phenotype</t>
+  </si>
+  <si>
+    <t>Patient 4</t>
+  </si>
+  <si>
+    <t>Patient 9</t>
+  </si>
+  <si>
+    <t>Patient 10</t>
+  </si>
+  <si>
+    <t>Patient 11</t>
+  </si>
+  <si>
+    <t>Patient 13</t>
+  </si>
+  <si>
+    <t>Patient 14</t>
+  </si>
+  <si>
+    <t>c.6027_6030del</t>
+  </si>
+  <si>
+    <t>c.2479_2480del</t>
+  </si>
+  <si>
+    <t>c.3932G&gt;A</t>
+  </si>
+  <si>
+    <t>c.5639_5642del</t>
+  </si>
+  <si>
+    <t>c.302_311del</t>
+  </si>
+  <si>
+    <t>c.7834dup</t>
+  </si>
+  <si>
+    <t>c.5465A&gt;G</t>
+  </si>
+  <si>
+    <t>Low anterior hairline</t>
+  </si>
+  <si>
+    <t>HP:0000294</t>
+  </si>
+  <si>
+    <t>Thick eyebrow</t>
+  </si>
+  <si>
+    <t>HP:0000574</t>
+  </si>
+  <si>
+    <t>Highly arched eyebrow</t>
+  </si>
+  <si>
+    <t>HP:0002553</t>
+  </si>
+  <si>
+    <t>Long eyelashes</t>
+  </si>
+  <si>
+    <t>HP:0000527</t>
+  </si>
+  <si>
+    <t>Short nose</t>
+  </si>
+  <si>
+    <t>HP:0003196</t>
+  </si>
+  <si>
+    <t>Broad nasal tip</t>
+  </si>
+  <si>
+    <t>HP:0000455</t>
+  </si>
+  <si>
+    <t>Smooth philtrum</t>
+  </si>
+  <si>
+    <t>HP:0000319</t>
+  </si>
+  <si>
+    <t>Small hand</t>
+  </si>
+  <si>
+    <t>HP:0200055</t>
+  </si>
+  <si>
+    <t>Short foot</t>
+  </si>
+  <si>
+    <t>HP:0001773</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>c.6955-2A&gt;C</t>
+  </si>
+  <si>
+    <t>Duplication of phalanx of hallux</t>
+  </si>
+  <si>
+    <t>HP:0010066</t>
+  </si>
+  <si>
+    <t>PMID:20358602</t>
+  </si>
+  <si>
+    <t>Mutations and variants in the cohesion factor genes NIPBL, SMC1A, and SMC3 in a cohort of 30 unrelated patients with Cornelia de Lange syndrome</t>
+  </si>
+  <si>
+    <t>Patient C5</t>
+  </si>
+  <si>
+    <t>Patient C8</t>
+  </si>
+  <si>
+    <t>Patient C10</t>
+  </si>
+  <si>
+    <t>Patient C14</t>
+  </si>
+  <si>
+    <t>Patient C18</t>
+  </si>
+  <si>
+    <t>Patient C20</t>
+  </si>
+  <si>
+    <t>Patient C21</t>
+  </si>
+  <si>
+    <t>Patient C25</t>
+  </si>
+  <si>
+    <t>Patient C26</t>
+  </si>
+  <si>
+    <t>Patient C28</t>
+  </si>
+  <si>
+    <t>Patient C29</t>
+  </si>
+  <si>
+    <t>c.4321G&gt;T</t>
+  </si>
+  <si>
+    <t>c.6242G&gt;C</t>
+  </si>
+  <si>
+    <t>c.230+1G&gt;A</t>
+  </si>
+  <si>
+    <t>c.2146C&gt;T</t>
+  </si>
+  <si>
+    <t>c.6449T&gt;C</t>
+  </si>
+  <si>
+    <t>c.5689_5691del</t>
+  </si>
+  <si>
+    <t>c.6880C&gt;T</t>
+  </si>
+  <si>
+    <t>c.7439_7440del</t>
+  </si>
+  <si>
+    <t>c.4320+5G&gt;C</t>
+  </si>
+  <si>
+    <t>c.6269G&gt;T</t>
+  </si>
+  <si>
+    <t>Skipping of exon 20, p.F1442KfsX3  p.V1441L</t>
+  </si>
+  <si>
+    <t>p.G2081A</t>
+  </si>
+  <si>
+    <t>Skipping of exon 3, p.L22QfsX3</t>
+  </si>
+  <si>
+    <t>p.Q716X</t>
+  </si>
+  <si>
+    <t>p.L2150P</t>
+  </si>
+  <si>
+    <t>p.R827GfsX2</t>
+  </si>
+  <si>
+    <t>p.N1897del</t>
+  </si>
+  <si>
+    <t>p.Q2294X</t>
+  </si>
+  <si>
+    <t>p.R2480KfsX5</t>
+  </si>
+  <si>
+    <t>Skipping of exon 19 p. V1414_A1440 del</t>
+  </si>
+  <si>
+    <t>p.S2090I</t>
+  </si>
+  <si>
+    <t>P5Y</t>
+  </si>
+  <si>
+    <t>P9Y</t>
+  </si>
+  <si>
+    <t>P12Y</t>
+  </si>
+  <si>
+    <t>P13Y</t>
+  </si>
+  <si>
+    <t>P10Y</t>
+  </si>
+  <si>
+    <t>P3Y</t>
+  </si>
+  <si>
+    <t>Global developmental delay</t>
+  </si>
+  <si>
+    <t>HP:0001263</t>
+  </si>
+  <si>
+    <t>Feeding difficulties</t>
+  </si>
+  <si>
+    <t>HP:0011968</t>
+  </si>
+  <si>
+    <t>Seizure</t>
+  </si>
+  <si>
+    <t>HP:0001250</t>
+  </si>
+  <si>
+    <t>Cerebral cortical atrophy</t>
+  </si>
+  <si>
+    <t>HP:0002120</t>
+  </si>
+  <si>
+    <t>Hypotonia</t>
+  </si>
+  <si>
+    <t>HP:0001252</t>
+  </si>
+  <si>
+    <t>Anteriorly placed anus</t>
+  </si>
+  <si>
+    <t>Horseshoe kidney</t>
+  </si>
+  <si>
+    <t>HP:0001545</t>
+  </si>
+  <si>
+    <t>HP:0000085</t>
+  </si>
+  <si>
+    <t>Hypoplastic labia minora</t>
+  </si>
+  <si>
+    <t>HP:0000064</t>
+  </si>
+  <si>
+    <t>Camptodactyly</t>
+  </si>
+  <si>
+    <t>Syndactyly</t>
+  </si>
+  <si>
+    <t>Clinodactyly</t>
+  </si>
+  <si>
+    <t>Brachydactyly</t>
+  </si>
+  <si>
+    <t>HP:0012385</t>
+  </si>
+  <si>
+    <t>HP:0001159</t>
+  </si>
+  <si>
+    <t>HP:0030084</t>
+  </si>
+  <si>
+    <t>HP:0001156</t>
+  </si>
+  <si>
+    <t>Patent foramen ovale</t>
+  </si>
+  <si>
+    <t>Pulmonic stenosis</t>
+  </si>
+  <si>
+    <t>Heart murmur</t>
+  </si>
+  <si>
+    <t>Cardiomegaly</t>
+  </si>
+  <si>
+    <t>Ventricular septal defect</t>
+  </si>
+  <si>
+    <t>Atrial septal defect</t>
+  </si>
+  <si>
+    <t>HP:0001655</t>
+  </si>
+  <si>
+    <t>HP:0001642</t>
+  </si>
+  <si>
+    <t>HP:0030148</t>
+  </si>
+  <si>
+    <t>HP:0001640</t>
+  </si>
+  <si>
+    <t>HP:0001629</t>
+  </si>
+  <si>
+    <t>HP:0001631</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,6 +862,38 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -547,7 +931,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -557,6 +941,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -861,15 +1250,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BQ7"/>
+  <dimension ref="A1:CS24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AP1" sqref="AP1:AP1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="17" max="39" width="8.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:97" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -928,157 +1320,241 @@
         <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="BV1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="BW1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="BX1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="BY1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="BZ1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="CA1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="CB1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="CC1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="CD1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="CE1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="CF1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="CG1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="CH1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="CI1" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="CJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>66</v>
+      <c r="CK1" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="CL1" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="CM1" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -1137,157 +1613,241 @@
         <v>79</v>
       </c>
       <c r="T2" t="s">
+        <v>228</v>
+      </c>
+      <c r="U2" t="s">
         <v>80</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>81</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>82</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>83</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>84</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>85</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>86</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC2" t="s">
         <v>87</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>88</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>89</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>90</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>144</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI2" t="s">
         <v>91</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AJ2" t="s">
         <v>92</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AK2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL2" t="s">
         <v>93</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AM2" t="s">
         <v>94</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AN2" t="s">
         <v>95</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AO2" t="s">
         <v>96</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AP2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>114</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>115</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>116</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>118</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>119</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>124</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>125</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>168</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>170</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>180</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>182</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>186</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>230</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>232</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>234</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>236</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>239</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>240</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>242</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>247</v>
+      </c>
+      <c r="CJ2" t="s">
         <v>97</v>
       </c>
-      <c r="AM2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>111</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>112</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>113</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>115</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>117</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>118</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>119</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>120</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>121</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>122</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>123</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>124</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>125</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>126</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>128</v>
+      <c r="CK2" t="s">
+        <v>248</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>249</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>250</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>257</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>258</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>259</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>260</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>261</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -1339,44 +1899,48 @@
       <c r="S3" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="U3" s="3" t="s">
-        <v>141</v>
-      </c>
+      <c r="T3" s="3"/>
       <c r="V3" s="3" t="s">
         <v>141</v>
       </c>
       <c r="W3" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="Z3" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG3" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AS3" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AZ3" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="BD3" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="BM3" s="3" t="s">
+      <c r="X3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB3" s="3"/>
+      <c r="AG3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ3" s="3"/>
+      <c r="AW3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BG3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BP3" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -1431,44 +1995,48 @@
       <c r="S4" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="U4" s="3" t="s">
-        <v>142</v>
-      </c>
+      <c r="T4" s="3"/>
       <c r="V4" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="W4" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="Z4" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG4" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AM4" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AS4" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AZ4" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="BD4" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="BM4" s="3" t="s">
+      <c r="X4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB4" s="3"/>
+      <c r="AG4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ4" s="3"/>
+      <c r="AW4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BG4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BP4" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -1520,76 +2088,2855 @@
       <c r="S5" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="U5" s="3" t="s">
-        <v>141</v>
-      </c>
+      <c r="T5" s="3"/>
       <c r="V5" s="3" t="s">
         <v>141</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="Z5" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG5" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AM5" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AS5" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AZ5" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="BD5" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="BM5" s="3" t="s">
+      <c r="X5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB5" s="3"/>
+      <c r="AG5" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ5" s="3"/>
+      <c r="AW5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BC5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BG5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BP5" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="N6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
+    <row r="6" spans="1:97" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>158</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="s">
+        <v>78</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>78</v>
+      </c>
+      <c r="R6" t="s">
+        <v>141</v>
+      </c>
+      <c r="S6" t="s">
+        <v>141</v>
+      </c>
+      <c r="U6" t="s">
+        <v>78</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="W6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AS6" s="3"/>
-      <c r="AZ6" s="3"/>
-      <c r="BD6" s="3"/>
-      <c r="BM6" s="3"/>
+      <c r="X6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM6" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AR6" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS6" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU6" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV6" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AW6" s="3"/>
+      <c r="BA6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>141</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>141</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>141</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>78</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>141</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="N7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
+    <row r="7" spans="1:97" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>78</v>
+      </c>
+      <c r="R7" t="s">
+        <v>141</v>
+      </c>
+      <c r="S7" t="s">
+        <v>141</v>
+      </c>
+      <c r="U7" t="s">
+        <v>141</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="W7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AZ7" s="3"/>
-      <c r="BD7" s="3"/>
-      <c r="BM7" s="3"/>
+      <c r="X7" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM7" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR7" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS7" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT7" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU7" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV7" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AW7" s="3"/>
+      <c r="BA7" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>78</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>141</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:97" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" t="s">
+        <v>160</v>
+      </c>
+      <c r="K8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>78</v>
+      </c>
+      <c r="R8" t="s">
+        <v>78</v>
+      </c>
+      <c r="S8" t="s">
+        <v>141</v>
+      </c>
+      <c r="U8" t="s">
+        <v>78</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR8" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS8" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT8" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV8" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>141</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>141</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>78</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>78</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>141</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>78</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>78</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>141</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>78</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>141</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>142</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:97" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="K9" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O9" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>78</v>
+      </c>
+      <c r="R9" t="s">
+        <v>141</v>
+      </c>
+      <c r="S9" t="s">
+        <v>141</v>
+      </c>
+      <c r="U9" t="s">
+        <v>78</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="X9" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH9" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM9" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>141</v>
+      </c>
+      <c r="AR9" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS9" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT9" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU9" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV9" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>141</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>141</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>78</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>78</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>78</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>78</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>78</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>78</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>141</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>78</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>142</v>
+      </c>
+      <c r="CJ9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:97" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" t="s">
+        <v>161</v>
+      </c>
+      <c r="K10" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>78</v>
+      </c>
+      <c r="R10" t="s">
+        <v>141</v>
+      </c>
+      <c r="S10" t="s">
+        <v>78</v>
+      </c>
+      <c r="U10" t="s">
+        <v>141</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="X10" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH10" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM10" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AR10" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS10" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV10" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>141</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>141</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>141</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>141</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>141</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>141</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>141</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>141</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>141</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>141</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>141</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>141</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>78</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>142</v>
+      </c>
+      <c r="CJ10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:97" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" t="s">
+        <v>162</v>
+      </c>
+      <c r="K11" t="s">
+        <v>78</v>
+      </c>
+      <c r="M11" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O11" t="s">
+        <v>78</v>
+      </c>
+      <c r="P11" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>78</v>
+      </c>
+      <c r="R11" t="s">
+        <v>141</v>
+      </c>
+      <c r="S11" t="s">
+        <v>78</v>
+      </c>
+      <c r="U11" t="s">
+        <v>78</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="X11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH11" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>141</v>
+      </c>
+      <c r="AR11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS11" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV11" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>141</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>141</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>142</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>141</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>141</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>141</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>141</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>141</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>141</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>78</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>142</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:97" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" t="s">
+        <v>163</v>
+      </c>
+      <c r="K12" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O12" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>78</v>
+      </c>
+      <c r="R12" t="s">
+        <v>78</v>
+      </c>
+      <c r="S12" t="s">
+        <v>78</v>
+      </c>
+      <c r="U12" t="s">
+        <v>78</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="X12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM12" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV12" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>141</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>141</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>78</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>141</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>141</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>78</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>78</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>78</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>78</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>141</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>78</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>142</v>
+      </c>
+      <c r="CJ12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:97" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" t="s">
+        <v>164</v>
+      </c>
+      <c r="K13" t="s">
+        <v>78</v>
+      </c>
+      <c r="M13" t="s">
+        <v>78</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O13" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>78</v>
+      </c>
+      <c r="R13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S13" t="s">
+        <v>78</v>
+      </c>
+      <c r="U13" t="s">
+        <v>141</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="X13" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH13" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>141</v>
+      </c>
+      <c r="AR13" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS13" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU13" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV13" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>141</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>141</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>78</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>141</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>141</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>141</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>141</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>141</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>141</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>141</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>141</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>142</v>
+      </c>
+      <c r="CJ13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>78</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="U14" t="s">
+        <v>142</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG14" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV14" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BK14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BM14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>141</v>
+      </c>
+      <c r="CB14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CC14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>141</v>
+      </c>
+      <c r="CE14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CF14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CG14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CH14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CI14" t="s">
+        <v>142</v>
+      </c>
+      <c r="CJ14" t="s">
+        <v>142</v>
+      </c>
+      <c r="CK14" t="s">
+        <v>142</v>
+      </c>
+      <c r="CL14" t="s">
+        <v>142</v>
+      </c>
+      <c r="CM14" t="s">
+        <v>142</v>
+      </c>
+      <c r="CN14" t="s">
+        <v>142</v>
+      </c>
+      <c r="CO14" t="s">
+        <v>142</v>
+      </c>
+      <c r="CP14" t="s">
+        <v>142</v>
+      </c>
+      <c r="CQ14" t="s">
+        <v>142</v>
+      </c>
+      <c r="CR14" t="s">
+        <v>142</v>
+      </c>
+      <c r="CS14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>78</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="U15" t="s">
+        <v>142</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG15" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH15" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN15" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO15" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV15" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="BJ15" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BK15" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="BM15" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>142</v>
+      </c>
+      <c r="CB15" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CC15" t="s">
+        <v>78</v>
+      </c>
+      <c r="CD15" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CE15" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CF15" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CG15" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CH15" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CI15" t="s">
+        <v>142</v>
+      </c>
+      <c r="CJ15" t="s">
+        <v>142</v>
+      </c>
+      <c r="CK15" t="s">
+        <v>141</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>142</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>142</v>
+      </c>
+      <c r="CN15" t="s">
+        <v>142</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>142</v>
+      </c>
+      <c r="CP15" t="s">
+        <v>142</v>
+      </c>
+      <c r="CQ15" t="s">
+        <v>142</v>
+      </c>
+      <c r="CR15" t="s">
+        <v>141</v>
+      </c>
+      <c r="CS15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>78</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="U16" t="s">
+        <v>142</v>
+      </c>
+      <c r="V16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG16" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV16" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="BK16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BM16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>142</v>
+      </c>
+      <c r="CB16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CC16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CD16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CE16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CF16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CG16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CH16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CI16" t="s">
+        <v>142</v>
+      </c>
+      <c r="CJ16" t="s">
+        <v>142</v>
+      </c>
+      <c r="CK16" t="s">
+        <v>141</v>
+      </c>
+      <c r="CL16" t="s">
+        <v>142</v>
+      </c>
+      <c r="CM16" t="s">
+        <v>141</v>
+      </c>
+      <c r="CN16" t="s">
+        <v>142</v>
+      </c>
+      <c r="CO16" t="s">
+        <v>142</v>
+      </c>
+      <c r="CP16" t="s">
+        <v>141</v>
+      </c>
+      <c r="CQ16" t="s">
+        <v>142</v>
+      </c>
+      <c r="CR16" t="s">
+        <v>142</v>
+      </c>
+      <c r="CS16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>78</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="T17" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="U17" t="s">
+        <v>142</v>
+      </c>
+      <c r="V17" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG17" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH17" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN17" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV17" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="BJ17" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BK17" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BM17" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>141</v>
+      </c>
+      <c r="CB17" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CC17" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CD17" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CE17" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CF17" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CG17" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CH17" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CI17" t="s">
+        <v>142</v>
+      </c>
+      <c r="CJ17" t="s">
+        <v>142</v>
+      </c>
+      <c r="CK17" t="s">
+        <v>141</v>
+      </c>
+      <c r="CL17" t="s">
+        <v>141</v>
+      </c>
+      <c r="CM17" t="s">
+        <v>142</v>
+      </c>
+      <c r="CN17" t="s">
+        <v>142</v>
+      </c>
+      <c r="CO17" t="s">
+        <v>141</v>
+      </c>
+      <c r="CP17" t="s">
+        <v>142</v>
+      </c>
+      <c r="CQ17" t="s">
+        <v>142</v>
+      </c>
+      <c r="CR17" t="s">
+        <v>142</v>
+      </c>
+      <c r="CS17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>78</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="U18" t="s">
+        <v>142</v>
+      </c>
+      <c r="V18" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG18" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH18" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN18" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV18" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="BJ18" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BK18" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BM18" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BY18" t="s">
+        <v>142</v>
+      </c>
+      <c r="CB18" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="CC18" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CD18" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CE18" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CF18" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="CG18" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CH18" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CI18" t="s">
+        <v>142</v>
+      </c>
+      <c r="CJ18" t="s">
+        <v>142</v>
+      </c>
+      <c r="CK18" t="s">
+        <v>142</v>
+      </c>
+      <c r="CL18" t="s">
+        <v>142</v>
+      </c>
+      <c r="CM18" t="s">
+        <v>142</v>
+      </c>
+      <c r="CN18" t="s">
+        <v>142</v>
+      </c>
+      <c r="CO18" t="s">
+        <v>142</v>
+      </c>
+      <c r="CP18" t="s">
+        <v>142</v>
+      </c>
+      <c r="CQ18" t="s">
+        <v>142</v>
+      </c>
+      <c r="CR18" t="s">
+        <v>142</v>
+      </c>
+      <c r="CS18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>78</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="U19" t="s">
+        <v>142</v>
+      </c>
+      <c r="V19" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG19" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH19" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN19" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV19" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="BJ19" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BK19" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BM19" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY19" t="s">
+        <v>142</v>
+      </c>
+      <c r="CB19" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="CC19" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CD19" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CE19" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CF19" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CG19" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CH19" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CI19" t="s">
+        <v>142</v>
+      </c>
+      <c r="CJ19" t="s">
+        <v>142</v>
+      </c>
+      <c r="CK19" t="s">
+        <v>141</v>
+      </c>
+      <c r="CL19" t="s">
+        <v>142</v>
+      </c>
+      <c r="CM19" t="s">
+        <v>142</v>
+      </c>
+      <c r="CN19" t="s">
+        <v>141</v>
+      </c>
+      <c r="CO19" t="s">
+        <v>142</v>
+      </c>
+      <c r="CP19" t="s">
+        <v>141</v>
+      </c>
+      <c r="CQ19" t="s">
+        <v>141</v>
+      </c>
+      <c r="CR19" t="s">
+        <v>142</v>
+      </c>
+      <c r="CS19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>78</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="U20" t="s">
+        <v>142</v>
+      </c>
+      <c r="V20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="W20" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG20" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV20" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BK20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="BM20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BY20" t="s">
+        <v>142</v>
+      </c>
+      <c r="CB20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CC20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CD20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CE20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CF20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CG20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CH20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CI20" t="s">
+        <v>142</v>
+      </c>
+      <c r="CJ20" t="s">
+        <v>142</v>
+      </c>
+      <c r="CK20" t="s">
+        <v>142</v>
+      </c>
+      <c r="CL20" t="s">
+        <v>141</v>
+      </c>
+      <c r="CM20" t="s">
+        <v>142</v>
+      </c>
+      <c r="CN20" t="s">
+        <v>142</v>
+      </c>
+      <c r="CO20" t="s">
+        <v>142</v>
+      </c>
+      <c r="CP20" t="s">
+        <v>141</v>
+      </c>
+      <c r="CQ20" t="s">
+        <v>142</v>
+      </c>
+      <c r="CR20" t="s">
+        <v>142</v>
+      </c>
+      <c r="CS20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>187</v>
+      </c>
+      <c r="B21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>78</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="U21" t="s">
+        <v>142</v>
+      </c>
+      <c r="V21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG21" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO21" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV21" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BK21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BM21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY21" t="s">
+        <v>142</v>
+      </c>
+      <c r="CB21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CC21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CD21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CE21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="CF21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CG21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CH21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CI21" t="s">
+        <v>142</v>
+      </c>
+      <c r="CJ21" t="s">
+        <v>142</v>
+      </c>
+      <c r="CK21" t="s">
+        <v>142</v>
+      </c>
+      <c r="CL21" t="s">
+        <v>142</v>
+      </c>
+      <c r="CM21" t="s">
+        <v>142</v>
+      </c>
+      <c r="CN21" t="s">
+        <v>142</v>
+      </c>
+      <c r="CO21" t="s">
+        <v>142</v>
+      </c>
+      <c r="CP21" t="s">
+        <v>141</v>
+      </c>
+      <c r="CQ21" t="s">
+        <v>142</v>
+      </c>
+      <c r="CR21" t="s">
+        <v>142</v>
+      </c>
+      <c r="CS21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" t="s">
+        <v>73</v>
+      </c>
+      <c r="I22" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>78</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="T22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="U22" t="s">
+        <v>142</v>
+      </c>
+      <c r="V22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG22" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV22" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="BK22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BM22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BY22" t="s">
+        <v>142</v>
+      </c>
+      <c r="CB22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="CC22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="CD22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CE22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CF22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CG22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="CH22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CI22" t="s">
+        <v>142</v>
+      </c>
+      <c r="CJ22" t="s">
+        <v>142</v>
+      </c>
+      <c r="CK22" t="s">
+        <v>142</v>
+      </c>
+      <c r="CL22" t="s">
+        <v>142</v>
+      </c>
+      <c r="CM22" t="s">
+        <v>141</v>
+      </c>
+      <c r="CN22" t="s">
+        <v>142</v>
+      </c>
+      <c r="CO22" t="s">
+        <v>142</v>
+      </c>
+      <c r="CP22" t="s">
+        <v>141</v>
+      </c>
+      <c r="CQ22" t="s">
+        <v>142</v>
+      </c>
+      <c r="CR22" t="s">
+        <v>142</v>
+      </c>
+      <c r="CS22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>78</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="T23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="U23" t="s">
+        <v>142</v>
+      </c>
+      <c r="V23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG23" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV23" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="BJ23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BK23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BM23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY23" t="s">
+        <v>142</v>
+      </c>
+      <c r="CB23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CC23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CD23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CE23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CF23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CG23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CH23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CI23" t="s">
+        <v>142</v>
+      </c>
+      <c r="CJ23" t="s">
+        <v>141</v>
+      </c>
+      <c r="CK23" t="s">
+        <v>141</v>
+      </c>
+      <c r="CL23" t="s">
+        <v>141</v>
+      </c>
+      <c r="CM23" t="s">
+        <v>141</v>
+      </c>
+      <c r="CN23" t="s">
+        <v>142</v>
+      </c>
+      <c r="CO23" t="s">
+        <v>142</v>
+      </c>
+      <c r="CP23" t="s">
+        <v>142</v>
+      </c>
+      <c r="CQ23" t="s">
+        <v>142</v>
+      </c>
+      <c r="CR23" t="s">
+        <v>142</v>
+      </c>
+      <c r="CS23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" t="s">
+        <v>74</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>78</v>
+      </c>
+      <c r="R24" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="S24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="T24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="U24" t="s">
+        <v>141</v>
+      </c>
+      <c r="V24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG24" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV24" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="BJ24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BK24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BM24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BY24" t="s">
+        <v>142</v>
+      </c>
+      <c r="CB24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="CC24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CD24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CE24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CF24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CG24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CH24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="CI24" t="s">
+        <v>141</v>
+      </c>
+      <c r="CJ24" t="s">
+        <v>142</v>
+      </c>
+      <c r="CK24" t="s">
+        <v>142</v>
+      </c>
+      <c r="CL24" t="s">
+        <v>142</v>
+      </c>
+      <c r="CM24" t="s">
+        <v>142</v>
+      </c>
+      <c r="CN24" t="s">
+        <v>142</v>
+      </c>
+      <c r="CO24" t="s">
+        <v>142</v>
+      </c>
+      <c r="CP24" t="s">
+        <v>142</v>
+      </c>
+      <c r="CQ24" t="s">
+        <v>142</v>
+      </c>
+      <c r="CR24" t="s">
+        <v>142</v>
+      </c>
+      <c r="CS24" t="s">
+        <v>142</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/notebooks/NIPBL/input/NIPBL_CDLS1_individuals.xlsx
+++ b/notebooks/NIPBL/input/NIPBL_CDLS1_individuals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/NIPBL/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05080092-9050-FF41-9E28-5898FFD94D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BC4E89-67E3-D648-855D-69FF2C5FD98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="4180" windowWidth="34440" windowHeight="7020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1360" yWindow="3760" windowWidth="37040" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1320,9 +1320,6 @@
     <t>NP_597677.2:p.(Glu487Ter)</t>
   </si>
   <si>
-    <t>c.1751_1752insN[101]</t>
-  </si>
-  <si>
     <t>insertion of 101 nucleotides</t>
   </si>
   <si>
@@ -1342,6 +1339,9 @@
   </si>
   <si>
     <t>P2D</t>
+  </si>
+  <si>
+    <t>c.1751_1752insATCCAAATACTATTGTAATATACTATGTTAAAATTCATCAATTCAAGTGCCCACACACCACTGAATCATCAGCACCAAGCAATATATTAGACATATGGCAA</t>
   </si>
 </sst>
 </file>
@@ -1470,7 +1470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1488,14 +1488,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1802,12 +1797,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DP63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
+      <selection activeCell="K61" sqref="A1:DP62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="10" max="10" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="17" max="23" width="8.83203125" customWidth="1"/>
     <col min="25" max="46" width="8.83203125" customWidth="1"/>
   </cols>
@@ -12088,195 +12084,195 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:112" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="14" t="s">
+    <row r="59" spans="1:112" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" t="s">
         <v>354</v>
       </c>
-      <c r="E59" s="15" t="s">
+      <c r="E59" t="s">
         <v>70</v>
       </c>
-      <c r="F59" s="15" t="s">
+      <c r="F59" t="s">
         <v>71</v>
       </c>
-      <c r="G59" s="15" t="s">
+      <c r="G59" t="s">
         <v>72</v>
       </c>
-      <c r="H59" s="15" t="s">
+      <c r="H59" t="s">
         <v>73</v>
       </c>
-      <c r="I59" s="15" t="s">
+      <c r="I59" t="s">
         <v>74</v>
       </c>
-      <c r="J59" s="15" t="s">
+      <c r="J59" t="s">
         <v>389</v>
       </c>
-      <c r="K59" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L59" s="15" t="s">
+      <c r="K59" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L59" t="s">
         <v>407</v>
       </c>
-      <c r="M59" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="N59" s="15" t="s">
+      <c r="M59" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N59" t="s">
         <v>368</v>
       </c>
-      <c r="O59" s="16" t="s">
+      <c r="O59" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P59" s="15" t="s">
+      <c r="P59" t="s">
         <v>133</v>
       </c>
-      <c r="Q59" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="S59" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="T59" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="U59" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="V59" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="W59" s="16"/>
-      <c r="X59" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y59" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z59" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA59" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB59" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC59" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE59" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH59" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI59" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="AJ59" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="AK59" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM59" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="AN59" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="AO59" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="AS59" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="AT59" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="AV59" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AW59" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="AY59" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="AZ59" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="BA59" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="BE59" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="BG59" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="BH59" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="BJ59" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="BL59" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="BN59" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="BP59" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="BS59" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="BT59" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="BV59" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="CA59" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="CB59" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="CE59" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="CI59" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="CM59" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="CU59" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="DA59" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="DD59" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="DE59" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="DF59" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="DG59" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="DH59" s="16" t="s">
+      <c r="Q59" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="S59" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="T59" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="U59" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="V59" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="W59" s="7"/>
+      <c r="X59" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y59" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z59" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA59" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB59" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC59" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE59" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH59" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI59" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ59" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK59" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM59" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN59" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO59" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS59" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT59" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV59" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW59" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AY59" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AZ59" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BA59" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="BE59" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="BG59" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="BH59" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ59" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="BL59" t="s">
+        <v>141</v>
+      </c>
+      <c r="BN59" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="BP59" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="BS59" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BT59" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="BV59" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CA59" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CB59" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="CE59" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="CI59" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="CM59" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="CU59" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="DA59" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="DD59" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="DE59" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="DF59" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="DG59" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="DH59" s="7" t="s">
         <v>142</v>
       </c>
     </row>
@@ -12287,7 +12283,7 @@
       <c r="B60" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" t="s">
         <v>131</v>
       </c>
       <c r="E60" t="s">
@@ -12305,40 +12301,40 @@
       <c r="I60" t="s">
         <v>74</v>
       </c>
-      <c r="J60" s="15" t="s">
+      <c r="J60" t="s">
         <v>426</v>
       </c>
-      <c r="K60" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L60" s="18" t="s">
+      <c r="K60" t="s">
+        <v>78</v>
+      </c>
+      <c r="L60" t="s">
         <v>427</v>
       </c>
-      <c r="M60" s="16" t="s">
+      <c r="M60" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="N60" s="15" t="s">
+      <c r="N60" t="s">
         <v>362</v>
       </c>
-      <c r="O60" s="16" t="s">
+      <c r="O60" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P60" s="15" t="s">
+      <c r="P60" t="s">
         <v>132</v>
       </c>
-      <c r="Q60" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="R60" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="S60" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="T60" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="U60" s="16" t="s">
+      <c r="Q60" t="s">
+        <v>78</v>
+      </c>
+      <c r="R60" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="S60" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="T60" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="U60" s="7" t="s">
         <v>141</v>
       </c>
       <c r="W60" s="8" t="s">
@@ -12350,22 +12346,22 @@
       <c r="AA60" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="AB60" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC60" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE60" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH60" s="14" t="s">
+      <c r="AB60" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC60" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE60" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH60" s="8" t="s">
         <v>142</v>
       </c>
       <c r="AI60" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="AJ60" s="14" t="s">
+      <c r="AJ60" s="8" t="s">
         <v>142</v>
       </c>
       <c r="AQ60" t="s">
@@ -12374,10 +12370,10 @@
       <c r="AR60" t="s">
         <v>141</v>
       </c>
-      <c r="AT60" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="AW60" s="16" t="s">
+      <c r="AT60" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AW60" s="7" t="s">
         <v>141</v>
       </c>
       <c r="AX60" t="s">
@@ -12386,31 +12382,31 @@
       <c r="AY60" t="s">
         <v>142</v>
       </c>
-      <c r="AZ60" s="16" t="s">
+      <c r="AZ60" s="7" t="s">
         <v>141</v>
       </c>
       <c r="BB60" t="s">
         <v>141</v>
       </c>
-      <c r="BJ60" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="BL60" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="BP60" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="BS60" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="BT60" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="CA60" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="CB60" s="16" t="s">
+      <c r="BJ60" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="BL60" t="s">
+        <v>141</v>
+      </c>
+      <c r="BP60" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="BS60" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="BT60" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="CA60" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="CB60" s="7" t="s">
         <v>141</v>
       </c>
       <c r="CD60" t="s">
@@ -12428,13 +12424,13 @@
       <c r="CH60" t="s">
         <v>141</v>
       </c>
-      <c r="CI60" s="14" t="s">
+      <c r="CI60" s="8" t="s">
         <v>141</v>
       </c>
       <c r="CL60" t="s">
         <v>141</v>
       </c>
-      <c r="CU60" s="16" t="s">
+      <c r="CU60" s="7" t="s">
         <v>142</v>
       </c>
     </row>
@@ -12445,79 +12441,79 @@
       <c r="B61" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" t="s">
         <v>137</v>
       </c>
-      <c r="E61" s="15" t="s">
+      <c r="E61" t="s">
         <v>70</v>
       </c>
-      <c r="F61" s="15" t="s">
+      <c r="F61" t="s">
         <v>71</v>
       </c>
-      <c r="G61" s="15" t="s">
+      <c r="G61" t="s">
         <v>72</v>
       </c>
-      <c r="H61" s="15" t="s">
+      <c r="H61" t="s">
         <v>73</v>
       </c>
-      <c r="I61" s="15" t="s">
+      <c r="I61" t="s">
         <v>74</v>
       </c>
-      <c r="J61" s="15" t="s">
+      <c r="J61" t="s">
+        <v>435</v>
+      </c>
+      <c r="K61" t="s">
+        <v>78</v>
+      </c>
+      <c r="L61" t="s">
         <v>428</v>
       </c>
-      <c r="K61" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L61" s="18" t="s">
-        <v>429</v>
-      </c>
-      <c r="M61" s="16" t="s">
+      <c r="M61" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="N61" s="15" t="s">
+      <c r="N61" t="s">
         <v>422</v>
       </c>
-      <c r="O61" s="16" t="s">
+      <c r="O61" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P61" s="15" t="s">
+      <c r="P61" t="s">
         <v>133</v>
       </c>
-      <c r="Q61" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="R61" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="S61" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="T61" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="U61" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="W61" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="X61" s="16" t="s">
+      <c r="Q61" t="s">
+        <v>78</v>
+      </c>
+      <c r="R61" t="s">
+        <v>141</v>
+      </c>
+      <c r="S61" t="s">
+        <v>141</v>
+      </c>
+      <c r="T61" t="s">
+        <v>141</v>
+      </c>
+      <c r="U61" t="s">
+        <v>141</v>
+      </c>
+      <c r="W61" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="X61" s="7" t="s">
         <v>141</v>
       </c>
       <c r="AA61" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="AB61" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC61" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE61" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH61" s="14" t="s">
+      <c r="AB61" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC61" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE61" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH61" s="8" t="s">
         <v>142</v>
       </c>
       <c r="AI61" s="8" t="s">
@@ -12529,10 +12525,10 @@
       <c r="AR61" t="s">
         <v>141</v>
       </c>
-      <c r="AT61" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="AW61" s="16" t="s">
+      <c r="AT61" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AW61" s="7" t="s">
         <v>141</v>
       </c>
       <c r="AX61" t="s">
@@ -12541,34 +12537,34 @@
       <c r="AY61" t="s">
         <v>142</v>
       </c>
-      <c r="AZ61" s="16" t="s">
+      <c r="AZ61" s="7" t="s">
         <v>141</v>
       </c>
       <c r="BB61" t="s">
         <v>141</v>
       </c>
-      <c r="BJ61" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="BL61" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="BP61" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="BS61" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="BT61" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="CB61" s="16" t="s">
+      <c r="BJ61" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="BL61" t="s">
+        <v>141</v>
+      </c>
+      <c r="BP61" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="BS61" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="BT61" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="CB61" s="7" t="s">
         <v>141</v>
       </c>
       <c r="CD61" t="s">
         <v>141</v>
       </c>
-      <c r="CE61" s="17" t="s">
+      <c r="CE61" s="6" t="s">
         <v>141</v>
       </c>
       <c r="CF61" t="s">
@@ -12580,7 +12576,7 @@
       <c r="CH61" t="s">
         <v>141</v>
       </c>
-      <c r="CI61" s="14" t="s">
+      <c r="CI61" s="8" t="s">
         <v>141</v>
       </c>
       <c r="CU61" t="s">
@@ -12589,84 +12585,84 @@
     </row>
     <row r="62" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="C62" t="s">
         <v>431</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="E62" t="s">
+        <v>70</v>
+      </c>
+      <c r="F62" t="s">
+        <v>71</v>
+      </c>
+      <c r="G62" t="s">
+        <v>72</v>
+      </c>
+      <c r="H62" t="s">
+        <v>73</v>
+      </c>
+      <c r="I62" t="s">
+        <v>74</v>
+      </c>
+      <c r="J62" t="s">
         <v>432</v>
       </c>
-      <c r="E62" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H62" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="I62" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="J62" s="15" t="s">
+      <c r="K62" t="s">
+        <v>78</v>
+      </c>
+      <c r="L62" t="s">
         <v>433</v>
       </c>
-      <c r="K62" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L62" s="18" t="s">
+      <c r="M62" t="s">
+        <v>268</v>
+      </c>
+      <c r="N62" t="s">
         <v>434</v>
       </c>
-      <c r="M62" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="N62" s="18" t="s">
-        <v>435</v>
-      </c>
-      <c r="O62" s="18" t="s">
+      <c r="O62" t="s">
         <v>149</v>
       </c>
-      <c r="P62" s="15" t="s">
+      <c r="P62" t="s">
         <v>133</v>
       </c>
-      <c r="Q62" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="R62" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="S62" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="T62" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="U62" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="V62" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="W62" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="X62" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y62" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z62" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB62" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE62" s="16" t="s">
+      <c r="Q62" t="s">
+        <v>78</v>
+      </c>
+      <c r="R62" t="s">
+        <v>78</v>
+      </c>
+      <c r="S62" t="s">
+        <v>78</v>
+      </c>
+      <c r="T62" t="s">
+        <v>78</v>
+      </c>
+      <c r="U62" t="s">
+        <v>78</v>
+      </c>
+      <c r="V62" t="s">
+        <v>78</v>
+      </c>
+      <c r="W62" t="s">
+        <v>78</v>
+      </c>
+      <c r="X62" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB62" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE62" s="7" t="s">
         <v>141</v>
       </c>
       <c r="AI62" s="8" t="s">
@@ -12675,13 +12671,13 @@
       <c r="AN62" t="s">
         <v>142</v>
       </c>
-      <c r="AO62" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="AS62" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="AT62" s="16" t="s">
+      <c r="AO62" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS62" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT62" s="7" t="s">
         <v>141</v>
       </c>
       <c r="BE62" s="8" t="s">
@@ -12690,13 +12686,13 @@
       <c r="BH62" t="s">
         <v>141</v>
       </c>
-      <c r="BL62" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="BQ62" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="BT62" s="14" t="s">
+      <c r="BL62" t="s">
+        <v>141</v>
+      </c>
+      <c r="BQ62" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="BT62" s="8" t="s">
         <v>141</v>
       </c>
       <c r="CD62" t="s">
